--- a/solutions/dell/devops/poweredge-ci-infrastructure/presales/infrastructure-costs.xlsx
+++ b/solutions/dell/devops/poweredge-ci-infrastructure/presales/infrastructure-costs.xlsx
@@ -14,9 +14,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Sizing Guidelines'!$A$2:$F$8</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Infrastructure Costs'!$A$2:$K$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Infrastructure Costs'!$A$2:$K$16</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Credits'!$A$2:$D$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'3-Year Summary'!$A$2:$G$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'3-Year Summary'!$A$2:$G$8</definedName>
   </definedNames>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
@@ -836,7 +836,7 @@
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>November 22, 2025</t>
+          <t>November 24, 2025</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -1338,7 +1338,7 @@
     <row r="5" ht="26" customHeight="1">
       <c r="A5" s="43" t="inlineStr">
         <is>
-          <t>Networking</t>
+          <t>Hardware</t>
         </is>
       </c>
       <c r="B5" s="44" t="inlineStr">
@@ -1383,7 +1383,7 @@
     <row r="6" ht="26" customHeight="1">
       <c r="A6" s="47" t="inlineStr">
         <is>
-          <t>Networking</t>
+          <t>Hardware</t>
         </is>
       </c>
       <c r="B6" s="48" t="inlineStr">
@@ -1428,7 +1428,7 @@
     <row r="7" ht="26" customHeight="1">
       <c r="A7" s="43" t="inlineStr">
         <is>
-          <t>Networking</t>
+          <t>Hardware</t>
         </is>
       </c>
       <c r="B7" s="44" t="inlineStr">
@@ -1473,7 +1473,7 @@
     <row r="8" ht="26" customHeight="1">
       <c r="A8" s="47" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Software Licenses</t>
         </is>
       </c>
       <c r="B8" s="48" t="inlineStr">
@@ -1518,7 +1518,7 @@
     <row r="9" ht="26" customHeight="1">
       <c r="A9" s="43" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Software Licenses</t>
         </is>
       </c>
       <c r="B9" s="44" t="inlineStr">
@@ -1563,7 +1563,7 @@
     <row r="10" ht="26" customHeight="1">
       <c r="A10" s="47" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Software Licenses</t>
         </is>
       </c>
       <c r="B10" s="48" t="inlineStr">
@@ -1608,7 +1608,7 @@
     <row r="11" ht="26" customHeight="1">
       <c r="A11" s="43" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Software Licenses</t>
         </is>
       </c>
       <c r="B11" s="44" t="inlineStr">
@@ -1653,7 +1653,7 @@
     <row r="12" ht="26" customHeight="1">
       <c r="A12" s="47" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Software Licenses</t>
         </is>
       </c>
       <c r="B12" s="48" t="inlineStr">
@@ -1698,7 +1698,7 @@
     <row r="13" ht="26" customHeight="1">
       <c r="A13" s="43" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Software Licenses</t>
         </is>
       </c>
       <c r="B13" s="44" t="inlineStr">
@@ -1831,261 +1831,36 @@
       </c>
     </row>
     <row r="16" ht="26" customHeight="1">
-      <c r="A16" s="47" t="inlineStr">
-        <is>
-          <t>Professional Services</t>
-        </is>
-      </c>
-      <c r="B16" s="48" t="inlineStr">
-        <is>
-          <t>CI/CD Infrastructure Design</t>
-        </is>
-      </c>
-      <c r="C16" s="48" t="inlineStr">
-        <is>
-          <t>Architecture design and capacity planning</t>
-        </is>
-      </c>
-      <c r="D16" s="49" t="n">
-        <v>40</v>
-      </c>
-      <c r="E16" s="48" t="inlineStr">
-        <is>
-          <t>Hours</t>
-        </is>
-      </c>
-      <c r="F16" s="50" t="n">
-        <v>250</v>
-      </c>
-      <c r="G16" s="50" t="n">
-        <v>10000</v>
-      </c>
-      <c r="H16" s="50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" s="50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" s="50" t="n">
-        <v>10000</v>
-      </c>
-      <c r="K16" s="48" t="inlineStr">
-        <is>
-          <t>Upfront design services</t>
-        </is>
-      </c>
-    </row>
-    <row r="17" ht="26" customHeight="1">
-      <c r="A17" s="43" t="inlineStr">
-        <is>
-          <t>Professional Services</t>
-        </is>
-      </c>
-      <c r="B17" s="44" t="inlineStr">
-        <is>
-          <t>GitLab Implementation</t>
-        </is>
-      </c>
-      <c r="C17" s="44" t="inlineStr">
-        <is>
-          <t>GitLab installation configuration and CI/CD pipeline setup</t>
-        </is>
-      </c>
-      <c r="D17" s="45" t="n">
-        <v>80</v>
-      </c>
-      <c r="E17" s="44" t="inlineStr">
-        <is>
-          <t>Hours</t>
-        </is>
-      </c>
-      <c r="F17" s="46" t="n">
-        <v>200</v>
-      </c>
-      <c r="G17" s="46" t="n">
-        <v>16000</v>
-      </c>
-      <c r="H17" s="46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" s="46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" s="46" t="n">
-        <v>16000</v>
-      </c>
-      <c r="K17" s="44" t="inlineStr">
-        <is>
-          <t>Platform deployment</t>
-        </is>
-      </c>
-    </row>
-    <row r="18" ht="26" customHeight="1">
-      <c r="A18" s="47" t="inlineStr">
-        <is>
-          <t>Professional Services</t>
-        </is>
-      </c>
-      <c r="B18" s="48" t="inlineStr">
-        <is>
-          <t>Artifactory Configuration</t>
-        </is>
-      </c>
-      <c r="C18" s="48" t="inlineStr">
-        <is>
-          <t>Artifact repository setup and proxy configuration</t>
-        </is>
-      </c>
-      <c r="D18" s="49" t="n">
-        <v>40</v>
-      </c>
-      <c r="E18" s="48" t="inlineStr">
-        <is>
-          <t>Hours</t>
-        </is>
-      </c>
-      <c r="F18" s="50" t="n">
-        <v>200</v>
-      </c>
-      <c r="G18" s="50" t="n">
-        <v>8000</v>
-      </c>
-      <c r="H18" s="50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" s="50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" s="50" t="n">
-        <v>8000</v>
-      </c>
-      <c r="K18" s="48" t="inlineStr">
-        <is>
-          <t>Artifact management setup</t>
-        </is>
-      </c>
-    </row>
-    <row r="19" ht="26" customHeight="1">
-      <c r="A19" s="43" t="inlineStr">
-        <is>
-          <t>Professional Services</t>
-        </is>
-      </c>
-      <c r="B19" s="44" t="inlineStr">
-        <is>
-          <t>Migration Services</t>
-        </is>
-      </c>
-      <c r="C19" s="44" t="inlineStr">
-        <is>
-          <t>Migrate CI/CD pipelines from cloud to on-prem</t>
-        </is>
-      </c>
-      <c r="D19" s="45" t="n">
-        <v>100</v>
-      </c>
-      <c r="E19" s="44" t="inlineStr">
-        <is>
-          <t>Hours</t>
-        </is>
-      </c>
-      <c r="F19" s="46" t="n">
-        <v>175</v>
-      </c>
-      <c r="G19" s="46" t="n">
-        <v>17500</v>
-      </c>
-      <c r="H19" s="46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" s="46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" s="46" t="n">
-        <v>17500</v>
-      </c>
-      <c r="K19" s="44" t="inlineStr">
-        <is>
-          <t>Pipeline migration assistance</t>
-        </is>
-      </c>
-    </row>
-    <row r="20" ht="26" customHeight="1">
-      <c r="A20" s="47" t="inlineStr">
-        <is>
-          <t>Professional Services</t>
-        </is>
-      </c>
-      <c r="B20" s="48" t="inlineStr">
-        <is>
-          <t>DevOps Training</t>
-        </is>
-      </c>
-      <c r="C20" s="48" t="inlineStr">
-        <is>
-          <t>GitLab and Artifactory administration 3-day workshop</t>
-        </is>
-      </c>
-      <c r="D20" s="49" t="n">
-        <v>4</v>
-      </c>
-      <c r="E20" s="48" t="inlineStr">
-        <is>
-          <t>Students</t>
-        </is>
-      </c>
-      <c r="F20" s="50" t="n">
-        <v>2500</v>
-      </c>
-      <c r="G20" s="50" t="n">
-        <v>10000</v>
-      </c>
-      <c r="H20" s="50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" s="50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" s="50" t="n">
-        <v>10000</v>
-      </c>
-      <c r="K20" s="48" t="inlineStr">
-        <is>
-          <t>Team training</t>
-        </is>
-      </c>
-    </row>
-    <row r="21" ht="26" customHeight="1">
-      <c r="A21" s="51" t="inlineStr">
+      <c r="A16" s="51" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="B21" s="52" t="n"/>
-      <c r="C21" s="52" t="n"/>
-      <c r="D21" s="52" t="n"/>
-      <c r="E21" s="52" t="n"/>
-      <c r="F21" s="52" t="n"/>
-      <c r="G21" s="53">
-        <f>SUM(G3:G20)</f>
-        <v/>
-      </c>
-      <c r="H21" s="53">
-        <f>SUM(H3:H20)</f>
-        <v/>
-      </c>
-      <c r="I21" s="53">
-        <f>SUM(I3:I20)</f>
-        <v/>
-      </c>
-      <c r="J21" s="53">
-        <f>SUM(J3:J20)</f>
-        <v/>
-      </c>
-      <c r="K21" s="52" t="n"/>
+      <c r="B16" s="52" t="n"/>
+      <c r="C16" s="52" t="n"/>
+      <c r="D16" s="52" t="n"/>
+      <c r="E16" s="52" t="n"/>
+      <c r="F16" s="52" t="n"/>
+      <c r="G16" s="53">
+        <f>SUM(G3:G15)</f>
+        <v/>
+      </c>
+      <c r="H16" s="53">
+        <f>SUM(H3:H15)</f>
+        <v/>
+      </c>
+      <c r="I16" s="53">
+        <f>SUM(I3:I15)</f>
+        <v/>
+      </c>
+      <c r="J16" s="53">
+        <f>SUM(J3:J15)</f>
+        <v/>
+      </c>
+      <c r="K16" s="52" t="n"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:K21"/>
+  <autoFilter ref="A2:K16"/>
   <mergeCells count="1">
     <mergeCell ref="A1:K1"/>
   </mergeCells>
@@ -2218,7 +1993,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -2314,7 +2089,7 @@
     <row r="4" ht="26" customHeight="1">
       <c r="A4" s="47" t="inlineStr">
         <is>
-          <t>Networking</t>
+          <t>Software Licenses</t>
         </is>
       </c>
       <c r="B4" s="50">
@@ -2345,7 +2120,7 @@
     <row r="5" ht="26" customHeight="1">
       <c r="A5" s="43" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Support &amp; Maintenance</t>
         </is>
       </c>
       <c r="B5" s="46">
@@ -2374,40 +2149,40 @@
       </c>
     </row>
     <row r="6" ht="26" customHeight="1">
-      <c r="A6" s="47" t="inlineStr">
-        <is>
-          <t>Support &amp; Maintenance</t>
-        </is>
-      </c>
-      <c r="B6" s="50">
-        <f>SUMIF('Infrastructure Costs'!$A:$A,A6,'Infrastructure Costs'!$G:$G)</f>
-        <v/>
-      </c>
-      <c r="C6" s="50">
-        <f>SUMIF(Credits!$A:$A,A6,Credits!$C:$C)</f>
-        <v/>
-      </c>
-      <c r="D6" s="50">
-        <f>B6+C6</f>
-        <v/>
-      </c>
-      <c r="E6" s="50">
-        <f>SUMIF('Infrastructure Costs'!$A:$A,A6,'Infrastructure Costs'!$H:$H)</f>
-        <v/>
-      </c>
-      <c r="F6" s="50">
-        <f>SUMIF('Infrastructure Costs'!$A:$A,A6,'Infrastructure Costs'!$I:$I)</f>
-        <v/>
-      </c>
-      <c r="G6" s="50">
-        <f>D6+E6+F6</f>
+      <c r="A6" s="51" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="B6" s="53">
+        <f>SUM(B3:B5)</f>
+        <v/>
+      </c>
+      <c r="C6" s="53">
+        <f>SUM(C3:C5)</f>
+        <v/>
+      </c>
+      <c r="D6" s="53">
+        <f>SUM(D3:D5)</f>
+        <v/>
+      </c>
+      <c r="E6" s="53">
+        <f>SUM(E3:E5)</f>
+        <v/>
+      </c>
+      <c r="F6" s="53">
+        <f>SUM(F3:F5)</f>
+        <v/>
+      </c>
+      <c r="G6" s="53">
+        <f>SUM(G3:G5)</f>
         <v/>
       </c>
     </row>
     <row r="7" ht="26" customHeight="1">
       <c r="A7" s="43" t="inlineStr">
         <is>
-          <t>Professional Services</t>
+          <t>Cloud Cost Avoidance (Annual)</t>
         </is>
       </c>
       <c r="B7" s="46">
@@ -2436,100 +2211,38 @@
       </c>
     </row>
     <row r="8" ht="26" customHeight="1">
-      <c r="A8" s="51" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="B8" s="53">
-        <f>SUM(B3:B7)</f>
-        <v/>
-      </c>
-      <c r="C8" s="53">
-        <f>SUM(C3:C7)</f>
-        <v/>
-      </c>
-      <c r="D8" s="53">
-        <f>SUM(D3:D7)</f>
-        <v/>
-      </c>
-      <c r="E8" s="53">
-        <f>SUM(E3:E7)</f>
-        <v/>
-      </c>
-      <c r="F8" s="53">
-        <f>SUM(F3:F7)</f>
-        <v/>
-      </c>
-      <c r="G8" s="53">
-        <f>SUM(G3:G7)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" ht="26" customHeight="1">
-      <c r="A9" s="43" t="inlineStr">
-        <is>
-          <t>Cloud Cost Avoidance (Annual)</t>
-        </is>
-      </c>
-      <c r="B9" s="46">
-        <f>SUMIF('Infrastructure Costs'!$A:$A,A9,'Infrastructure Costs'!$G:$G)</f>
-        <v/>
-      </c>
-      <c r="C9" s="46">
-        <f>SUMIF(Credits!$A:$A,A9,Credits!$C:$C)</f>
-        <v/>
-      </c>
-      <c r="D9" s="46">
-        <f>B9+C9</f>
-        <v/>
-      </c>
-      <c r="E9" s="46">
-        <f>SUMIF('Infrastructure Costs'!$A:$A,A9,'Infrastructure Costs'!$H:$H)</f>
-        <v/>
-      </c>
-      <c r="F9" s="46">
-        <f>SUMIF('Infrastructure Costs'!$A:$A,A9,'Infrastructure Costs'!$I:$I)</f>
-        <v/>
-      </c>
-      <c r="G9" s="46">
-        <f>D9+E9+F9</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" ht="26" customHeight="1">
-      <c r="A10" s="47" t="inlineStr">
+      <c r="A8" s="47" t="inlineStr">
         <is>
           <t>Net Investment After Savings</t>
         </is>
       </c>
-      <c r="B10" s="50">
-        <f>SUMIF('Infrastructure Costs'!$A:$A,A10,'Infrastructure Costs'!$G:$G)</f>
-        <v/>
-      </c>
-      <c r="C10" s="50">
-        <f>SUMIF(Credits!$A:$A,A10,Credits!$C:$C)</f>
-        <v/>
-      </c>
-      <c r="D10" s="50">
-        <f>B10+C10</f>
-        <v/>
-      </c>
-      <c r="E10" s="50">
-        <f>SUMIF('Infrastructure Costs'!$A:$A,A10,'Infrastructure Costs'!$H:$H)</f>
-        <v/>
-      </c>
-      <c r="F10" s="50">
-        <f>SUMIF('Infrastructure Costs'!$A:$A,A10,'Infrastructure Costs'!$I:$I)</f>
-        <v/>
-      </c>
-      <c r="G10" s="50">
-        <f>D10+E10+F10</f>
+      <c r="B8" s="50">
+        <f>SUMIF('Infrastructure Costs'!$A:$A,A8,'Infrastructure Costs'!$G:$G)</f>
+        <v/>
+      </c>
+      <c r="C8" s="50">
+        <f>SUMIF(Credits!$A:$A,A8,Credits!$C:$C)</f>
+        <v/>
+      </c>
+      <c r="D8" s="50">
+        <f>B8+C8</f>
+        <v/>
+      </c>
+      <c r="E8" s="50">
+        <f>SUMIF('Infrastructure Costs'!$A:$A,A8,'Infrastructure Costs'!$H:$H)</f>
+        <v/>
+      </c>
+      <c r="F8" s="50">
+        <f>SUMIF('Infrastructure Costs'!$A:$A,A8,'Infrastructure Costs'!$I:$I)</f>
+        <v/>
+      </c>
+      <c r="G8" s="50">
+        <f>D8+E8+F8</f>
         <v/>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:G10"/>
+  <autoFilter ref="A2:G8"/>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>

--- a/solutions/dell/devops/poweredge-ci-infrastructure/presales/infrastructure-costs.xlsx
+++ b/solutions/dell/devops/poweredge-ci-infrastructure/presales/infrastructure-costs.xlsx
@@ -1993,7 +1993,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -2058,7 +2058,7 @@
     <row r="3" ht="26" customHeight="1">
       <c r="A3" s="43" t="inlineStr">
         <is>
-          <t>Hardware</t>
+          <t>Software Licenses</t>
         </is>
       </c>
       <c r="B3" s="46">
@@ -2089,7 +2089,7 @@
     <row r="4" ht="26" customHeight="1">
       <c r="A4" s="47" t="inlineStr">
         <is>
-          <t>Software Licenses</t>
+          <t>Hardware</t>
         </is>
       </c>
       <c r="B4" s="50">
@@ -2151,38 +2151,38 @@
     <row r="6" ht="26" customHeight="1">
       <c r="A6" s="51" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Operational Efficiency</t>
         </is>
       </c>
       <c r="B6" s="53">
-        <f>SUM(B3:B5)</f>
+        <f>SUMIF('Infrastructure Costs'!$A:$A,A6,'Infrastructure Costs'!$G:$G)</f>
         <v/>
       </c>
       <c r="C6" s="53">
-        <f>SUM(C3:C5)</f>
+        <f>SUMIF(Credits!$A:$A,A6,Credits!$C:$C)</f>
         <v/>
       </c>
       <c r="D6" s="53">
-        <f>SUM(D3:D5)</f>
+        <f>B6+C6</f>
         <v/>
       </c>
       <c r="E6" s="53">
-        <f>SUM(E3:E5)</f>
+        <f>SUMIF('Infrastructure Costs'!$A:$A,A6,'Infrastructure Costs'!$H:$H)</f>
         <v/>
       </c>
       <c r="F6" s="53">
-        <f>SUM(F3:F5)</f>
+        <f>SUMIF('Infrastructure Costs'!$A:$A,A6,'Infrastructure Costs'!$I:$I)</f>
         <v/>
       </c>
       <c r="G6" s="53">
-        <f>SUM(G3:G5)</f>
+        <f>D6+E6+F6</f>
         <v/>
       </c>
     </row>
     <row r="7" ht="26" customHeight="1">
       <c r="A7" s="43" t="inlineStr">
         <is>
-          <t>Cloud Cost Avoidance (Annual)</t>
+          <t>Cloud Cost Avoidance</t>
         </is>
       </c>
       <c r="B7" s="46">
@@ -2213,34 +2213,35 @@
     <row r="8" ht="26" customHeight="1">
       <c r="A8" s="47" t="inlineStr">
         <is>
-          <t>Net Investment After Savings</t>
+          <t>TOTAL</t>
         </is>
       </c>
       <c r="B8" s="50">
-        <f>SUMIF('Infrastructure Costs'!$A:$A,A8,'Infrastructure Costs'!$G:$G)</f>
+        <f>SUM(B3:B7)</f>
         <v/>
       </c>
       <c r="C8" s="50">
-        <f>SUMIF(Credits!$A:$A,A8,Credits!$C:$C)</f>
+        <f>SUM(C3:C7)</f>
         <v/>
       </c>
       <c r="D8" s="50">
-        <f>B8+C8</f>
+        <f>SUM(D3:D7)</f>
         <v/>
       </c>
       <c r="E8" s="50">
-        <f>SUMIF('Infrastructure Costs'!$A:$A,A8,'Infrastructure Costs'!$H:$H)</f>
+        <f>SUM(E3:E7)</f>
         <v/>
       </c>
       <c r="F8" s="50">
-        <f>SUMIF('Infrastructure Costs'!$A:$A,A8,'Infrastructure Costs'!$I:$I)</f>
+        <f>SUM(F3:F7)</f>
         <v/>
       </c>
       <c r="G8" s="50">
-        <f>D8+E8+F8</f>
-        <v/>
-      </c>
-    </row>
+        <f>SUM(G3:G7)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9"/>
   </sheetData>
   <autoFilter ref="A2:G8"/>
   <mergeCells count="1">
